--- a/BackTest/2020-01-22 BackTest XRP.xlsx
+++ b/BackTest/2020-01-22 BackTest XRP.xlsx
@@ -10549,7 +10549,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>525568.08729605</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>526877.6340960501</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>770442.6510069001</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>795793.9941069002</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>893902.2385069001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>870250.2341069002</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>946347.5980188402</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>941699.1376214601</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>832611.7532121401</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>775046.7403121401</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>765939.7124121401</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>767479.3523121401</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>927909.13791214</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>1017246.20431214</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>1058477.15911214</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>1064527.93491214</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>1169014.75311214</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>1563456.89629857</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>2494966.28873967</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>3513761.7737667</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-102320920.7234345</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-102771012.9409684</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-102691629.9711684</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-102850474.6283684</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-102653526.0479684</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-103035280.5804685</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-102771593.2073566</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-101851354.3883831</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-102362420.585547</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-102642494.6120865</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-102715629.2016865</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-102859185.6305676</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-102859947.2113794</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-102809316.6904911</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-102875262.2943911</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-102954788.9016184</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-103111391.3178977</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-103099404.2561977</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-103072085.6401977</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-103072085.6401977</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-102997134.3071977</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-102987257.7978734</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-103029033.2859648</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-102863611.5392648</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-102898865.0606354</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-102898865.0606354</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-102784084.9680354</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-102784084.9680354</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-102902341.6041354</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-102687032.3558512</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-102598184.2078512</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-102405276.6596424</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-102622515.5278424</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-102765248.2964424</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-102833607.4375424</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-102833607.4375424</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-102792385.4471731</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-102793029.0810731</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-102793029.0810731</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-102720973.8139586</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-102715746.6139586</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-102711010.6176441</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-102584027.9968441</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-102595405.6923441</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-102685825.1596441</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-102685825.1596441</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-102764849.0401441</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-102764849.0401441</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-102616368.0862441</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-102773239.1363441</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-103233617.0794441</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-103233031.8117071</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-103240187.2040071</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-103479421.0536071</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-103500227.2796071</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-103500227.2796071</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-103514445.7500071</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-103508544.8609071</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-103508544.8609071</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-103580589.5724071</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-103575106.3443071</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-103590853.3237915</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-103564874.7836585</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-103564878.5233585</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-103547877.9026585</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-103547877.9026585</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-103548217.6085585</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-103542539.6098108</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-103622134.0022108</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-103622134.0022108</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-103641460.6288108</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-103641460.6288108</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-103762094.1555108</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-103828688.4615108</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-103790783.0700108</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-104017328.2382108</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-103992201.8157108</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22594,11 +22594,17 @@
         <v>-103955978.3674593</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>271</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +22637,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +22670,17 @@
         <v>-103833180.4309593</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22693,11 +22709,15 @@
         <v>-103839133.8028593</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22746,15 @@
         <v>-103839133.8028593</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +22787,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +22824,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +22861,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +22898,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +22935,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +22968,15 @@
         <v>-103564410.325735</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,14 +23005,16 @@
         <v>-103565723.574635</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="inlineStr"/>
     </row>
     <row r="685">
@@ -22990,7 +23040,7 @@
         <v>-103635146.970535</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23073,7 @@
         <v>-103635152.970535</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23106,7 @@
         <v>-103635453.425135</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23320,11 +23370,17 @@
         <v>-103939441.8147108</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23357,7 +23413,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23390,7 +23450,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +23487,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23520,17 @@
         <v>-103939175.0752108</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23559,17 @@
         <v>-103942214.9970719</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>269.4</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23598,17 @@
         <v>-103751831.0875719</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23637,17 @@
         <v>-103834538.6794719</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23676,17 @@
         <v>-103815874.6491719</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23625,7 +23723,7 @@
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L704" t="n">
@@ -23890,9 +23988,11 @@
         <v>-103910046.6440082</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -23927,9 +24027,11 @@
         <v>-103908676.762598</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -23964,9 +24066,11 @@
         <v>-103908676.762598</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>270</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24001,9 +24105,11 @@
         <v>-103888603.3635183</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>270</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24038,9 +24144,11 @@
         <v>-103888603.3635183</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24075,9 +24183,11 @@
         <v>-103889659.4613183</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24112,9 +24222,11 @@
         <v>-103899075.3853183</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>270</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24149,9 +24261,11 @@
         <v>-103803351.0245183</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24186,9 +24300,11 @@
         <v>-103803351.0245183</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24223,9 +24339,11 @@
         <v>-103782284.9075183</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24260,9 +24378,11 @@
         <v>-103788343.0543183</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24297,9 +24417,11 @@
         <v>-103788343.0543183</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>270</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24334,9 +24456,11 @@
         <v>-103766633.3081183</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>270</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24371,9 +24495,11 @@
         <v>-103766633.3081183</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24408,9 +24534,11 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24445,9 +24573,11 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24482,9 +24612,11 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24519,9 +24651,11 @@
         <v>-103573359.8573183</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24556,9 +24690,11 @@
         <v>-103469988.4736183</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24593,9 +24729,11 @@
         <v>-103476373.7927183</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24630,9 +24768,11 @@
         <v>-103476371.7927183</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24667,9 +24807,11 @@
         <v>-103476371.7927183</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24704,9 +24846,11 @@
         <v>-103497083.2757183</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -24741,9 +24885,11 @@
         <v>-103498713.4055183</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>271</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -24778,9 +24924,11 @@
         <v>-103498713.4055183</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24815,9 +24963,11 @@
         <v>-103505018.1889183</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -24852,9 +25002,11 @@
         <v>-103509691.8740183</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -24889,9 +25041,11 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -24926,9 +25080,11 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -24963,9 +25119,11 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25000,9 +25158,11 @@
         <v>-103492902.0434183</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25037,9 +25197,11 @@
         <v>-103489597.7254183</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25074,9 +25236,11 @@
         <v>-103489597.7254183</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25111,9 +25275,11 @@
         <v>-103570640.1206183</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25148,9 +25314,11 @@
         <v>-103570640.1206183</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25185,9 +25353,11 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25222,9 +25392,11 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25259,9 +25431,11 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25296,9 +25470,11 @@
         <v>-103602131.8987183</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25333,9 +25509,11 @@
         <v>-103610433.3956183</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25370,9 +25548,11 @@
         <v>-103610433.3956183</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25407,9 +25587,11 @@
         <v>-103660866.119628</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -25444,9 +25626,11 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -25481,9 +25665,11 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -25518,9 +25704,11 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -25555,9 +25743,11 @@
         <v>-103618216.857528</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -25592,9 +25782,11 @@
         <v>-103612820.4393779</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>271</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -25629,9 +25821,11 @@
         <v>-103614467.1712779</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -25666,9 +25860,11 @@
         <v>-103608598.4142779</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -25703,9 +25899,11 @@
         <v>-103606492.2366779</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -25740,9 +25938,11 @@
         <v>-103606492.2366779</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -25777,9 +25977,11 @@
         <v>-103606483.9310301</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25814,9 +26016,11 @@
         <v>-103648163.2218301</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -25851,9 +26055,11 @@
         <v>-103637385.6492301</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -25888,9 +26094,11 @@
         <v>-103694689.0032301</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -25925,9 +26133,11 @@
         <v>-103684551.0559047</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -25962,9 +26172,11 @@
         <v>-103790803.6894047</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -25999,9 +26211,11 @@
         <v>-104291419.3495047</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>270</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26036,9 +26250,11 @@
         <v>-104291419.3495047</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26073,9 +26289,11 @@
         <v>-104361050.9551649</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26110,9 +26328,11 @@
         <v>-104272784.7778649</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26147,9 +26367,11 @@
         <v>-104272784.7778649</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26184,9 +26406,11 @@
         <v>-104512099.1131415</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26221,9 +26445,11 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26258,9 +26484,11 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26295,9 +26523,11 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26332,9 +26562,11 @@
         <v>-104775653.6872415</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26369,9 +26601,11 @@
         <v>-104775653.6872415</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -26406,9 +26640,11 @@
         <v>-104747203.372423</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -26443,9 +26679,11 @@
         <v>-104744659.0287415</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26480,9 +26718,11 @@
         <v>-104756355.7747415</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>270</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26517,9 +26757,11 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26554,9 +26796,11 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26591,9 +26835,11 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26628,9 +26874,11 @@
         <v>-104810764.7911415</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26665,9 +26913,11 @@
         <v>-104814052.1558415</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26702,9 +26952,11 @@
         <v>-104804813.3423231</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26739,9 +26991,11 @@
         <v>-104804813.3423231</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26776,9 +27030,11 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26813,9 +27069,11 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26850,9 +27108,11 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -26887,9 +27147,11 @@
         <v>-104763329.1155778</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -26924,9 +27186,11 @@
         <v>-104504528.7788221</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -26961,9 +27225,11 @@
         <v>-104502264.4671221</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -26998,9 +27264,11 @@
         <v>-104502264.4671221</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>270</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27035,9 +27303,11 @@
         <v>-104547919.2728221</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>270</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27072,9 +27342,11 @@
         <v>-104547919.2728221</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27109,9 +27381,11 @@
         <v>-104422884.5020221</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27146,9 +27420,11 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>270</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27183,9 +27459,11 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27220,9 +27498,11 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27257,9 +27537,11 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27294,9 +27576,11 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27331,9 +27615,11 @@
         <v>-104370241.7640221</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27368,9 +27654,11 @@
         <v>-104358517.4674471</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>270</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27405,9 +27693,11 @@
         <v>-104348649.9586564</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27442,9 +27732,11 @@
         <v>-104476838.6078584</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27479,9 +27771,11 @@
         <v>-104622940.7623584</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27516,9 +27810,11 @@
         <v>-104594569.9386584</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27553,9 +27849,11 @@
         <v>-104581366.9227584</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27590,9 +27888,11 @@
         <v>-104581366.9227584</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>269.4</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27627,9 +27927,11 @@
         <v>-104792872.2541584</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>269.4</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27664,9 +27966,11 @@
         <v>-104804534.6079584</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27701,9 +28005,11 @@
         <v>-104988088.0637584</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27738,9 +28044,11 @@
         <v>-105095202.3439584</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>269</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27775,9 +28083,11 @@
         <v>-105002686.1809584</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27812,9 +28122,11 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -27849,9 +28161,11 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27886,9 +28200,11 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27923,9 +28239,11 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27960,9 +28278,11 @@
         <v>-104980410.1905867</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27997,9 +28317,11 @@
         <v>-104984123.9425867</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>269</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28034,9 +28356,11 @@
         <v>-104983855.7958867</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28071,9 +28395,11 @@
         <v>-105124952.2872867</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>269</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28108,9 +28434,11 @@
         <v>-105176785.6216867</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28145,9 +28473,11 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28182,9 +28512,11 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28219,9 +28551,11 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28256,9 +28590,11 @@
         <v>-105187070.4815339</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28293,9 +28629,11 @@
         <v>-104965080.3905812</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>268.1</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28330,9 +28668,11 @@
         <v>-104964697.5165812</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28367,9 +28707,11 @@
         <v>-104966039.3130812</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>268.4</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28404,9 +28746,11 @@
         <v>-104964845.9504602</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28441,9 +28785,11 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28478,9 +28824,11 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28515,9 +28863,11 @@
         <v>-105024431.8721602</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28552,9 +28902,11 @@
         <v>-105041468.1527602</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28589,9 +28941,11 @@
         <v>-105192218.1779602</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>268.1</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28626,9 +28980,11 @@
         <v>-105172242.0828602</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>267.9</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28663,9 +29019,11 @@
         <v>-105179847.6936602</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>268</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28700,9 +29058,11 @@
         <v>-105177399.3533602</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>267.9</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28737,9 +29097,11 @@
         <v>-105177240.9495602</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28774,9 +29136,11 @@
         <v>-105180472.9096602</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28811,9 +29175,11 @@
         <v>-105172981.7788602</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28848,9 +29214,11 @@
         <v>-105112226.1628733</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28885,9 +29253,11 @@
         <v>-105064326.1376602</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28922,9 +29292,11 @@
         <v>-105061961.3398602</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28959,9 +29331,11 @@
         <v>-105112698.5250602</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28996,9 +29370,11 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -29033,9 +29409,11 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29148,9 +29526,11 @@
         <v>-105221733.2861602</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>268.1</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -29185,9 +29565,11 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>268</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29222,9 +29604,11 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>267.8</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29259,9 +29643,11 @@
         <v>-105260320.9996027</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>267.8</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29296,9 +29682,11 @@
         <v>-105273056.1030027</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29333,9 +29721,11 @@
         <v>-105203829.3898027</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>267.9</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29370,9 +29760,11 @@
         <v>-105197287.6182027</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>268.1</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29407,9 +29799,11 @@
         <v>-105201291.2352027</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29444,9 +29838,11 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>268</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29481,9 +29877,11 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29518,9 +29916,11 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29555,9 +29955,11 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>269</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29592,9 +29994,11 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>269</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29629,9 +30033,11 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29666,9 +30072,11 @@
         <v>-105133020.5865027</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29703,9 +30111,11 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29740,9 +30150,11 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29777,9 +30189,11 @@
         <v>-105124942.8091027</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29814,9 +30228,11 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29851,9 +30267,11 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29888,9 +30306,11 @@
         <v>-105033014.7036489</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29925,9 +30345,11 @@
         <v>-105029184.6804489</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>269</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29962,9 +30384,11 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -29999,9 +30423,11 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30036,9 +30462,11 @@
         <v>-104974034.0144325</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30073,9 +30501,11 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -30110,9 +30540,11 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -30147,9 +30579,11 @@
         <v>-104937153.2877703</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -30184,9 +30618,11 @@
         <v>-104909284.6115703</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30221,9 +30657,11 @@
         <v>-104895996.5355703</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30258,9 +30696,11 @@
         <v>-104938826.5825703</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>270</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30295,9 +30735,11 @@
         <v>-104689278.2270703</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30332,9 +30774,11 @@
         <v>-104651047.3799687</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30369,9 +30813,11 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30406,9 +30852,11 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30443,9 +30891,11 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30480,9 +30930,11 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>270</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30517,9 +30969,11 @@
         <v>-104702815.804965</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>270</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30554,9 +31008,11 @@
         <v>-104679796.523665</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30591,9 +31047,11 @@
         <v>-104695127.108565</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30628,9 +31086,11 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30665,9 +31125,11 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30702,9 +31164,11 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30739,9 +31203,11 @@
         <v>-104598753.165965</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30776,9 +31242,11 @@
         <v>-104568734.290965</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30813,9 +31281,11 @@
         <v>-104577586.493665</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30850,9 +31320,11 @@
         <v>-104577586.493665</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30887,9 +31359,11 @@
         <v>-104465342.949265</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30924,9 +31398,11 @@
         <v>-104465342.949265</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>271</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30961,9 +31437,11 @@
         <v>-104471391.154765</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>271</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30998,9 +31476,11 @@
         <v>-104372909.752335</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31035,9 +31515,11 @@
         <v>-104372909.752335</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>271</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31072,9 +31554,11 @@
         <v>-104449831.5623138</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>271</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31109,9 +31593,11 @@
         <v>-104464420.4268138</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -31146,9 +31632,11 @@
         <v>-104460863.6654138</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -31183,9 +31671,11 @@
         <v>-104488520.7949138</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31220,9 +31710,11 @@
         <v>-104492059.2309154</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31257,9 +31749,11 @@
         <v>-104480988.1321363</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31294,9 +31788,11 @@
         <v>-104480988.1321363</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -31331,9 +31827,11 @@
         <v>-104543501.001217</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31368,9 +31866,11 @@
         <v>-104501737.220317</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31405,9 +31905,11 @@
         <v>-104362916.563817</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -31442,9 +31944,11 @@
         <v>-104368369.559217</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -31479,9 +31983,11 @@
         <v>-104332785.950317</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31516,9 +32022,11 @@
         <v>-104280481.356002</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31553,9 +32061,11 @@
         <v>-104295309.315802</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31590,9 +32100,11 @@
         <v>-104295309.315802</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>271</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31627,9 +32139,11 @@
         <v>-104124043.926002</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>271</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31664,9 +32178,11 @@
         <v>-104135121.743502</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31701,9 +32217,11 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31738,9 +32256,11 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>271</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31775,9 +32295,11 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>271</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31812,9 +32334,11 @@
         <v>-104118185.6488687</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>271</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31849,9 +32373,11 @@
         <v>-104118185.6488687</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31886,9 +32412,11 @@
         <v>-104134762.2059817</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31923,9 +32451,11 @@
         <v>-104092747.3455727</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>270.3</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31960,9 +32490,11 @@
         <v>-104092574.1342727</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31997,9 +32529,11 @@
         <v>-104151544.0682727</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -32034,9 +32568,11 @@
         <v>-104256461.3689727</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -32071,9 +32607,11 @@
         <v>-104281962.3063727</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -32108,9 +32646,11 @@
         <v>-104281962.3063727</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -32145,9 +32685,11 @@
         <v>-104411545.2561727</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -32182,9 +32724,11 @@
         <v>-104396989.2198727</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -32219,9 +32763,11 @@
         <v>-104425070.1747727</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>270</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -32256,9 +32802,11 @@
         <v>-104354496.3437727</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -32293,9 +32841,11 @@
         <v>-104389872.4859014</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>270</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -32330,9 +32880,11 @@
         <v>-104387164.3283014</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32367,9 +32919,11 @@
         <v>-104394787.7571014</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32404,9 +32958,11 @@
         <v>-104408130.0843014</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32441,9 +32997,11 @@
         <v>-104397209.9034014</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>269.4</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32478,9 +33036,11 @@
         <v>-104415256.2675014</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32515,9 +33075,11 @@
         <v>-104442386.7440014</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32552,9 +33114,11 @@
         <v>-104430167.0028382</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>269</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32589,9 +33153,11 @@
         <v>-104442504.4904382</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>269.3</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32626,9 +33192,11 @@
         <v>-104418573.3162382</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>269</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32663,9 +33231,11 @@
         <v>-104418573.3162382</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32700,9 +33270,11 @@
         <v>-104493435.1588382</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32737,9 +33309,11 @@
         <v>-104481123.5401382</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32774,9 +33348,11 @@
         <v>-104478567.2364382</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32811,9 +33387,11 @@
         <v>-104422829.2704382</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>269</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32848,9 +33426,11 @@
         <v>-104427052.0695382</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>269.4</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32885,9 +33465,11 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32922,9 +33504,11 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32959,9 +33543,11 @@
         <v>-104349786.5457382</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32996,9 +33582,11 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -33033,9 +33621,11 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -33070,9 +33660,11 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -33107,9 +33699,11 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33144,9 +33738,11 @@
         <v>-104422131.3102545</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -33181,9 +33777,11 @@
         <v>-104414314.9102545</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -33218,9 +33816,11 @@
         <v>-104424528.6284545</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33255,9 +33855,11 @@
         <v>-104383454.2694545</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33292,9 +33894,11 @@
         <v>-104557292.4115545</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33329,9 +33933,11 @@
         <v>-104537256.1401253</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33366,9 +33972,11 @@
         <v>-104538053.1401253</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33403,9 +34011,11 @@
         <v>-104537863.9180253</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>269</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33479,9 +34089,11 @@
         <v>-104587404.4339253</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>269.2</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33516,9 +34128,11 @@
         <v>-104562730.285381</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33670,9 +34284,11 @@
         <v>-104572551.553481</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>269</v>
+      </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33941,9 +34557,11 @@
         <v>-104821942.076881</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -33978,9 +34596,11 @@
         <v>-104884983.102281</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -34015,9 +34635,11 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -34091,9 +34713,11 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>269</v>
+      </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -34128,9 +34752,11 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>269</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -34165,9 +34791,11 @@
         <v>-104873499.164281</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>269</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -34241,9 +34869,11 @@
         <v>-104645991.819181</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -34278,9 +34908,11 @@
         <v>-104585244.174081</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -34315,9 +34947,11 @@
         <v>-104555998.423881</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -34352,9 +34986,11 @@
         <v>-104616827.3891638</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -34389,9 +35025,11 @@
         <v>-104616236.475536</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -34426,9 +35064,11 @@
         <v>-104604097.365336</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -34463,9 +35103,11 @@
         <v>-104607924.060936</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -34500,9 +35142,11 @@
         <v>-104525949.044436</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -34537,9 +35181,11 @@
         <v>-104641888.538136</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34574,9 +35220,11 @@
         <v>-104626904.304536</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34611,9 +35259,11 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34648,9 +35298,11 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34685,9 +35337,11 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34722,9 +35376,11 @@
         <v>-104533520.437936</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34759,9 +35415,11 @@
         <v>-104483337.494136</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34796,9 +35454,11 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34833,9 +35493,11 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34870,9 +35532,11 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34907,9 +35571,11 @@
         <v>-104310141.05343</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34944,9 +35610,11 @@
         <v>-104362520.20443</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34981,9 +35649,11 @@
         <v>-104362520.20443</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
@@ -35018,9 +35688,11 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -35055,9 +35727,11 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -35092,9 +35766,11 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -35129,9 +35805,11 @@
         <v>-104361609.2266563</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -35166,9 +35844,11 @@
         <v>-104332488.1389902</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -35203,9 +35883,11 @@
         <v>-104358335.1904902</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>271</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -35240,9 +35922,11 @@
         <v>-104358335.1904902</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -35277,9 +35961,11 @@
         <v>-104341329.846199</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -35314,9 +36000,11 @@
         <v>-104407788.093999</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -35351,9 +36039,11 @@
         <v>-104440443.939999</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>271</v>
+      </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -35388,9 +36078,11 @@
         <v>-104411823.465699</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -35425,9 +36117,11 @@
         <v>-104417857.9419492</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>271</v>
+      </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -35462,9 +36156,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35499,9 +36195,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35536,9 +36234,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35573,9 +36273,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35610,9 +36312,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35647,9 +36351,11 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35684,9 +36390,11 @@
         <v>-104412970.8691491</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35721,9 +36429,11 @@
         <v>-104411816.1853644</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35758,9 +36468,11 @@
         <v>-104366105.3737993</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35795,9 +36507,11 @@
         <v>-104416691.6753993</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>271</v>
+      </c>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35832,9 +36546,11 @@
         <v>-104416691.6753993</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35869,9 +36585,11 @@
         <v>-104397588.0931503</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35906,9 +36624,11 @@
         <v>-104397588.0931503</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35943,9 +36663,11 @@
         <v>-104396027.1586503</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35980,9 +36702,11 @@
         <v>-104401072.9661503</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>271</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -36017,9 +36741,11 @@
         <v>-104345162.6331503</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -36054,9 +36780,11 @@
         <v>-104407166.850393</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>271</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -36091,9 +36819,11 @@
         <v>-104327274.196993</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -36128,9 +36858,11 @@
         <v>-104216589.3386671</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -36165,9 +36897,11 @@
         <v>-104249777.7980671</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>271.7</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -36202,9 +36936,11 @@
         <v>-104006997.2035671</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -36239,9 +36975,11 @@
         <v>-104068135.7006671</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>271.7</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -36276,9 +37014,11 @@
         <v>-104089562.3012671</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -36313,9 +37053,11 @@
         <v>-104105092.1633554</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36350,9 +37092,11 @@
         <v>-104110873.4223554</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>271</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -36387,9 +37131,11 @@
         <v>-104192134.0993554</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -36424,9 +37170,11 @@
         <v>-104192134.0993554</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36461,9 +37209,11 @@
         <v>-104197134.0993554</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36498,9 +37248,11 @@
         <v>-104219002.491117</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36535,9 +37287,11 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36572,9 +37326,11 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36609,9 +37365,11 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36646,9 +37404,11 @@
         <v>-104265493.3441992</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36683,9 +37443,11 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36720,9 +37482,11 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36757,9 +37521,11 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36794,9 +37560,11 @@
         <v>-104292603.9530992</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36831,9 +37599,11 @@
         <v>-104352437.5782992</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36868,9 +37638,11 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36905,9 +37677,11 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>270</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36942,9 +37716,11 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>270</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36979,9 +37755,11 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>270</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -37016,9 +37794,11 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>270</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -37053,9 +37833,11 @@
         <v>-104332770.6934992</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>270</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -37090,9 +37872,11 @@
         <v>-104332770.6934992</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -37127,9 +37911,11 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -37164,9 +37950,11 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>270</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -37201,9 +37989,11 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>270</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -37238,9 +38028,11 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>270</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -37275,9 +38067,11 @@
         <v>-104333741.6941992</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>270</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -37312,9 +38106,11 @@
         <v>-104333473.4763585</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -37349,9 +38145,11 @@
         <v>-104336336.2766585</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>270</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -37386,9 +38184,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -37423,9 +38223,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -37460,9 +38262,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -37497,9 +38301,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -37534,9 +38340,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
@@ -37571,9 +38379,11 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
@@ -37608,9 +38418,11 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
@@ -37645,9 +38457,11 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -37682,9 +38496,11 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
@@ -37719,9 +38535,11 @@
         <v>-104340228.4052055</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
@@ -37756,9 +38574,11 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
@@ -37793,9 +38613,11 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
@@ -37830,9 +38652,11 @@
         <v>-104336492.3246899</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
@@ -37867,9 +38691,11 @@
         <v>-104315887.2231196</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37904,9 +38730,11 @@
         <v>-104338944.9192196</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>270</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -37941,9 +38769,11 @@
         <v>-104338944.9192196</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
@@ -37978,9 +38808,11 @@
         <v>-104345701.7463862</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
@@ -38015,9 +38847,11 @@
         <v>-104320952.1233862</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -38052,9 +38886,11 @@
         <v>-104302009.034358</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -38089,9 +38925,11 @@
         <v>-104302009.034358</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>270</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -38126,9 +38964,11 @@
         <v>-104316532.631658</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>270</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
@@ -38163,9 +39003,11 @@
         <v>-104316532.631658</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -38200,9 +39042,11 @@
         <v>-104288167.524758</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>269.6</v>
+      </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -38237,9 +39081,11 @@
         <v>-104279412.505858</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
@@ -38274,9 +39120,11 @@
         <v>-104322595.129558</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>269.8</v>
+      </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
@@ -38311,9 +39159,11 @@
         <v>-104329383.5334579</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -38348,9 +39198,11 @@
         <v>-104301144.2381579</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>269.5</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
@@ -38385,9 +39237,11 @@
         <v>-104309125.7611579</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>270</v>
+      </c>
       <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
@@ -38422,9 +39276,11 @@
         <v>-104309125.7611579</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
@@ -38459,9 +39315,11 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
@@ -38496,9 +39354,11 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>270</v>
+      </c>
       <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
@@ -38533,9 +39393,11 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>270</v>
+      </c>
       <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
@@ -38570,9 +39432,11 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>270</v>
+      </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
@@ -38607,9 +39471,11 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>270</v>
+      </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38644,9 +39510,11 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>270</v>
+      </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
@@ -38681,9 +39549,11 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38718,9 +39588,11 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38755,9 +39627,11 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38792,9 +39666,11 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38829,9 +39705,11 @@
         <v>-104307119.2486579</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38866,9 +39744,11 @@
         <v>-104310743.3420579</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38903,9 +39783,11 @@
         <v>-104312771.8141579</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -38940,9 +39822,11 @@
         <v>-104268920.3744579</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
@@ -38977,9 +39861,11 @@
         <v>-104272237.4161579</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>270</v>
+      </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -39014,9 +39900,11 @@
         <v>-104268099.964058</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>269.7</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -39051,9 +39939,11 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>269.9</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -39088,9 +39978,11 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -39125,9 +40017,11 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -39162,9 +40056,11 @@
         <v>-104226507.4078984</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>270.1</v>
+      </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
@@ -39199,9 +40095,11 @@
         <v>-104212727.5415984</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>270.2</v>
+      </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
@@ -39236,9 +40134,11 @@
         <v>-104190921.6458984</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>270.4</v>
+      </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
@@ -39273,9 +40173,11 @@
         <v>-103923591.9900984</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
@@ -39310,9 +40212,11 @@
         <v>-103923591.9900984</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -39347,9 +40251,11 @@
         <v>-103919791.9900984</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -39384,9 +40290,11 @@
         <v>-103948594.6795984</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -39421,9 +40329,11 @@
         <v>-103779179.3838617</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
@@ -39458,9 +40368,11 @@
         <v>-103784376.7400405</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>271.5</v>
+      </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -39495,9 +40407,11 @@
         <v>-103808902.5158405</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>271.4</v>
+      </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -39532,9 +40446,11 @@
         <v>-103808902.5158405</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39569,9 +40485,11 @@
         <v>-103808085.2037405</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
@@ -39606,9 +40524,11 @@
         <v>-103785855.3187405</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
@@ -39643,9 +40563,11 @@
         <v>-103803203.6390405</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>271.5</v>
+      </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39680,9 +40602,11 @@
         <v>-103803203.6390405</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>271</v>
+      </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39717,9 +40641,11 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>271</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39754,9 +40680,11 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -39791,9 +40719,11 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -39828,9 +40758,11 @@
         <v>-103864467.9486405</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -39865,9 +40797,11 @@
         <v>-103916518.7127405</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>271</v>
+      </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
@@ -39902,9 +40836,11 @@
         <v>-103916497.7120019</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
@@ -39939,9 +40875,11 @@
         <v>-103908120.6971315</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>270.8</v>
+      </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
@@ -39976,9 +40914,11 @@
         <v>-103908120.6971315</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>271</v>
+      </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
@@ -40013,9 +40953,11 @@
         <v>-103790644.4818315</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>271</v>
+      </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
@@ -40050,9 +40992,11 @@
         <v>-103901087.4940315</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>271.4</v>
+      </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
@@ -40087,9 +41031,11 @@
         <v>-103945945.6249315</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
@@ -40124,9 +41070,11 @@
         <v>-103903493.8316315</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>271</v>
+      </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
@@ -40161,9 +41109,11 @@
         <v>-103921555.5007687</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
@@ -40198,9 +41148,11 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>271</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
@@ -40235,9 +41187,11 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
@@ -40272,9 +41226,11 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
@@ -40309,9 +41265,11 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
@@ -40346,9 +41304,11 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
@@ -40383,9 +41343,11 @@
         <v>-103835396.0343687</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>271.3</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -40420,9 +41382,11 @@
         <v>-103409904.4976687</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>271.2</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -40457,9 +41421,11 @@
         <v>-103221913.9522687</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>272</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -40494,9 +41460,11 @@
         <v>-103210662.0986687</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>272.4</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40531,9 +41499,11 @@
         <v>-102885611.9079687</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>272.7</v>
+      </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
@@ -40568,9 +41538,11 @@
         <v>-102701862.1837873</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
@@ -40605,18 +41577,16 @@
         <v>-102443904.7603687</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1162" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1162" t="inlineStr"/>
       <c r="M1162" t="inlineStr"/>
     </row>
     <row r="1163">
@@ -40642,15 +41612,11 @@
         <v>-102443904.7603687</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -40679,15 +41645,11 @@
         <v>-102615464.5908687</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -40716,15 +41678,11 @@
         <v>-102541622.1786616</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40753,15 +41711,11 @@
         <v>-102451801.8694616</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40790,15 +41744,11 @@
         <v>-102543572.4700616</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40827,15 +41777,11 @@
         <v>-102543572.4700616</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40864,15 +41810,11 @@
         <v>-102574709.8347616</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40901,15 +41843,11 @@
         <v>-102527306.0602616</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40938,15 +41876,11 @@
         <v>-102499534.4491616</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40975,15 +41909,15 @@
         <v>-102499534.4491616</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>273</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>273</v>
+      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -41012,13 +41946,15 @@
         <v>-102315874.387451</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>273</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1173" t="n">
@@ -41049,10 +41985,12 @@
         <v>-102315874.387451</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>273</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41086,10 +42024,12 @@
         <v>-102329219.344051</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>273</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41123,10 +42063,14 @@
         <v>-102329219.344051</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>273</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41160,10 +42104,14 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>273</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41197,10 +42145,14 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>273</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41234,10 +42186,14 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>273</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41271,10 +42227,14 @@
         <v>-102514490.9606948</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>273</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41308,10 +42268,14 @@
         <v>-102523468.0001948</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>272</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>273</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41345,10 +42309,14 @@
         <v>-102505963.9720419</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>271.8</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>273</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41382,10 +42350,14 @@
         <v>-102505963.9720419</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>272</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>273</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41419,10 +42391,14 @@
         <v>-102431384.8775419</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>272</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>273</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41456,17 +42432,19 @@
         <v>-102399748.5955734</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>273</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L1185" t="n">
-        <v>1</v>
+        <v>0.9939010989010989</v>
       </c>
       <c r="M1185" t="inlineStr"/>
     </row>
@@ -41493,15 +42471,11 @@
         <v>-102408135.8308734</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -41530,15 +42504,11 @@
         <v>-102437181.4756734</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -41567,15 +42537,11 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -41604,15 +42570,11 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -41641,15 +42603,11 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -41678,15 +42636,11 @@
         <v>-102327762.3694734</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -41715,13 +42669,15 @@
         <v>-102218076.1700734</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>271.4</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1192" t="n">
@@ -41752,9 +42708,11 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>271.7</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -41789,9 +42747,11 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -41826,9 +42786,11 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -41863,9 +42825,11 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -41900,9 +42864,11 @@
         <v>-102378634.5946734</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -41937,9 +42903,11 @@
         <v>-102299966.3301734</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -41974,9 +42942,11 @@
         <v>-102299966.3301734</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -42011,9 +42981,11 @@
         <v>-102305123.1062734</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>271.6</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -42048,9 +43020,11 @@
         <v>-102305123.1062734</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>271.5</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -42085,9 +43059,11 @@
         <v>-102382685.2570734</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>271.5</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -42122,9 +43098,11 @@
         <v>-102389989.9553734</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>271.4</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -42159,9 +43137,11 @@
         <v>-102412369.5157734</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -42196,9 +43176,11 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>271</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -42233,9 +43215,11 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -42270,9 +43254,11 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
@@ -42307,9 +43293,11 @@
         <v>-102410176.9416734</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -42344,9 +43332,11 @@
         <v>-102411630.6541734</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -42381,9 +43371,11 @@
         <v>-102425445.1795734</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>271</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -42418,9 +43410,11 @@
         <v>-102631852.9697734</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>270.9</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -42455,9 +43449,11 @@
         <v>-102541556.6255734</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>270.6</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -42492,9 +43488,11 @@
         <v>-102577004.4359741</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>271.1</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -42529,9 +43527,11 @@
         <v>-102612806.1538741</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>270.7</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -42566,9 +43566,11 @@
         <v>-102612143.5144741</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>270.5</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
